--- a/REGULAR/RE-ENCODE/MALIGAYO, YOLANDA.xlsx
+++ b/REGULAR/RE-ENCODE/MALIGAYO, YOLANDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12D9AF-06A4-4EC0-9AD6-FFC7BA603997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -322,12 +321,15 @@
   </si>
   <si>
     <t>3/21,22/2023</t>
+  </si>
+  <si>
+    <t>4/17,18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1016,25 +1018,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1341,34 +1343,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A7"/>
+      <pane ySplit="4050" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1389,7 +1391,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1411,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1431,7 +1433,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1439,7 +1441,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1452,7 +1454,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1469,7 +1471,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1523,12 +1525,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>163.6</v>
+        <v>161.6</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1550,7 +1552,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -1593,7 +1595,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>43145</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1639,7 +1641,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>43176</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -1684,7 +1686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>45</v>
@@ -1703,7 +1705,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -1723,7 +1725,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43252</v>
       </c>
@@ -1749,7 +1751,7 @@
         <v>43257</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -1768,7 +1770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -1787,7 +1789,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>49</v>
@@ -1806,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>48</v>
@@ -1825,7 +1827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43282</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>55</v>
@@ -1870,7 +1872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43313</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43344</v>
       </c>
@@ -1916,7 +1918,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43374</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>45</v>
@@ -1987,7 +1989,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -2007,7 +2009,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>61</v>
       </c>
@@ -2025,7 +2027,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2071,7 +2073,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43525</v>
       </c>
@@ -2091,7 +2093,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43556</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>45</v>
@@ -2136,7 +2138,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>63</v>
@@ -2153,7 +2155,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43617</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -2225,7 +2227,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43678</v>
       </c>
@@ -2251,7 +2253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>48</v>
@@ -2270,7 +2272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -2289,7 +2291,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43709</v>
       </c>
@@ -2315,7 +2317,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43739</v>
       </c>
@@ -2335,7 +2337,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43770</v>
       </c>
@@ -2355,7 +2357,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43800</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>65</v>
@@ -2403,7 +2405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>55</v>
@@ -2425,7 +2427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>72</v>
       </c>
@@ -2443,7 +2445,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43831</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43862</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>45</v>
@@ -2512,7 +2514,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -2552,7 +2554,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>45</v>
@@ -2623,7 +2625,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44013</v>
       </c>
@@ -2643,7 +2645,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44044</v>
       </c>
@@ -2663,7 +2665,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44075</v>
       </c>
@@ -2689,7 +2691,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44105</v>
       </c>
@@ -2715,7 +2717,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>63</v>
@@ -2732,7 +2734,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>75</v>
@@ -2751,7 +2753,7 @@
         <v>44131</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44136</v>
       </c>
@@ -2771,7 +2773,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44166</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>65</v>
@@ -2819,7 +2821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>78</v>
@@ -2836,7 +2838,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>77</v>
       </c>
@@ -2854,7 +2856,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44197</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>45</v>
@@ -2899,7 +2901,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44228</v>
       </c>
@@ -2925,7 +2927,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>46</v>
@@ -2944,7 +2946,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44256</v>
       </c>
@@ -2964,7 +2966,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44287</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>63</v>
@@ -3007,7 +3009,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44317</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>45</v>
@@ -3052,7 +3054,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44348</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>48</v>
@@ -3097,7 +3099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44378</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -3142,7 +3144,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -3161,7 +3163,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44409</v>
       </c>
@@ -3181,7 +3183,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44440</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>44442</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -3226,7 +3228,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44470</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44501</v>
       </c>
@@ -3272,7 +3274,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44531</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>81</v>
       </c>
@@ -3316,7 +3318,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44562</v>
       </c>
@@ -3340,7 +3342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44593</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>55</v>
@@ -3385,7 +3387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44621</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44652</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>63</v>
@@ -3452,7 +3454,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44682</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44713</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>45</v>
@@ -3523,7 +3525,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44743</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>65</v>
@@ -3568,7 +3570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>45</v>
@@ -3590,7 +3592,7 @@
         <v>44768</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44774</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44805</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44835</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -3688,7 +3690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44866</v>
       </c>
@@ -3708,7 +3710,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44896</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>90</v>
       </c>
@@ -3752,7 +3754,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>44927</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>45</v>
@@ -3800,7 +3802,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>44958</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>93</v>
@@ -3848,7 +3850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>44986</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>45</v>
@@ -3896,11 +3898,13 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45017</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
@@ -3909,12 +3913,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="39">
+        <v>2</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K117" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45047</v>
       </c>
@@ -3932,7 +3940,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45078</v>
       </c>
@@ -3950,7 +3958,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45108</v>
       </c>
@@ -3968,7 +3976,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45139</v>
       </c>
@@ -3986,7 +3994,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45170</v>
       </c>
@@ -4004,7 +4012,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45200</v>
       </c>
@@ -4022,7 +4030,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45231</v>
       </c>
@@ -4040,7 +4048,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45261</v>
       </c>
@@ -4058,7 +4066,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45292</v>
       </c>
@@ -4076,7 +4084,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>45323</v>
       </c>
@@ -4094,7 +4102,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45352</v>
       </c>
@@ -4112,7 +4120,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45383</v>
       </c>
@@ -4130,7 +4138,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45413</v>
       </c>
@@ -4148,7 +4156,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45444</v>
       </c>
@@ -4166,7 +4174,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45474</v>
       </c>
@@ -4184,7 +4192,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45505</v>
       </c>
@@ -4202,7 +4210,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>45536</v>
       </c>
@@ -4220,7 +4228,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45566</v>
       </c>
@@ -4238,7 +4246,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45597</v>
       </c>
@@ -4256,7 +4264,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>45627</v>
       </c>
@@ -4274,7 +4282,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45658</v>
       </c>
@@ -4292,7 +4300,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45689</v>
       </c>
@@ -4310,7 +4318,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45717</v>
       </c>
@@ -4328,7 +4336,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45748</v>
       </c>
@@ -4346,7 +4354,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>45778</v>
       </c>
@@ -4364,7 +4372,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>45809</v>
       </c>
@@ -4382,7 +4390,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>45839</v>
       </c>
@@ -4400,7 +4408,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>45870</v>
       </c>
@@ -4418,7 +4426,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>45901</v>
       </c>
@@ -4436,7 +4444,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>45931</v>
       </c>
@@ -4454,7 +4462,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>45962</v>
       </c>
@@ -4472,7 +4480,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>45992</v>
       </c>
@@ -4490,7 +4498,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>46023</v>
       </c>
@@ -4508,7 +4516,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>46054</v>
       </c>
@@ -4526,7 +4534,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>46082</v>
       </c>
@@ -4544,7 +4552,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>46113</v>
       </c>
@@ -4562,7 +4570,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>46143</v>
       </c>
@@ -4580,7 +4588,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>46174</v>
       </c>
@@ -4598,7 +4606,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>46204</v>
       </c>
@@ -4616,7 +4624,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4632,7 +4640,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4648,7 +4656,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4664,7 +4672,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4680,7 +4688,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -4696,7 +4704,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4712,7 +4720,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4728,7 +4736,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="15"/>
       <c r="C164" s="42"/>
@@ -4759,10 +4767,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4785,28 +4793,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4819,7 +4827,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>132.41999999999999</v>
       </c>
@@ -4872,17 +4880,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4903,7 +4911,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4930,7 +4938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4956,7 +4964,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5008,7 +5016,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5060,7 +5068,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5086,7 +5094,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5132,7 +5140,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5152,7 +5160,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5172,7 +5180,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5193,7 +5201,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5235,7 +5243,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5319,7 +5327,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5361,7 +5369,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5403,7 +5411,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5466,7 +5474,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5550,7 +5558,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5571,7 +5579,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5601,7 +5609,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5610,7 +5618,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5619,7 +5627,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5628,7 +5636,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5637,7 +5645,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5646,7 +5654,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5655,7 +5663,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5664,7 +5672,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5673,7 +5681,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5682,7 +5690,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5691,7 +5699,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5700,7 +5708,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5709,7 +5717,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5718,7 +5726,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5727,7 +5735,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5736,7 +5744,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5745,7 +5753,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5754,7 +5762,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5763,7 +5771,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5772,7 +5780,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5781,7 +5789,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5790,7 +5798,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5799,7 +5807,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5808,7 +5816,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5817,7 +5825,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5826,7 +5834,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5835,7 +5843,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5844,7 +5852,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5853,7 +5861,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/MALIGAYO, YOLANDA.xlsx
+++ b/REGULAR/RE-ENCODE/MALIGAYO, YOLANDA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>4/17,18/2023</t>
+  </si>
+  <si>
+    <t>BDAY 4/25/23</t>
+  </si>
+  <si>
+    <t>5/9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1024,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K164" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K165" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1347,12 +1353,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K164"/>
+  <dimension ref="A2:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1521,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.16999999999999</v>
+        <v>130.41999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1525,7 +1531,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>161.6</v>
+        <v>162.85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3905,13 +3911,15 @@
       <c r="B117" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39">
         <v>2</v>
@@ -3923,10 +3931,10 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B118" s="20"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
@@ -3938,15 +3946,21 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B119" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
+      <c r="D119" s="39">
+        <v>2</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -3956,11 +3970,13 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3978,7 +3994,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3996,7 +4012,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4014,7 +4030,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4032,7 +4048,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4050,7 +4066,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4068,7 +4084,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4086,7 +4102,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4104,7 +4120,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4122,7 +4138,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4140,7 +4156,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4158,7 +4174,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4176,7 +4192,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4194,7 +4210,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4212,7 +4228,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4230,7 +4246,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4248,7 +4264,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4266,7 +4282,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4284,7 +4300,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4302,7 +4318,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4320,7 +4336,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4338,7 +4354,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4356,7 +4372,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4374,7 +4390,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4392,7 +4408,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4410,7 +4426,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4428,7 +4444,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4446,7 +4462,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4464,7 +4480,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4482,7 +4498,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4500,7 +4516,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4518,7 +4534,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4536,7 +4552,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4554,7 +4570,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4572,7 +4588,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4590,7 +4606,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4608,7 +4624,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4625,7 +4641,9 @@
       <c r="K156" s="20"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+      <c r="A157" s="40">
+        <v>46204</v>
+      </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
       <c r="D157" s="39"/>
@@ -4737,20 +4755,36 @@
       <c r="K163" s="20"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="41"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="42"/>
-      <c r="D164" s="43"/>
+      <c r="A164" s="40"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H164" s="43"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="15"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="41"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="43"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
